--- a/scr-edu/src/main/resources/poi_templates/raportare.tmpl.xlsx
+++ b/scr-edu/src/main/resources/poi_templates/raportare.tmpl.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="27">
   <si>
     <t>Mama plecată</t>
   </si>
@@ -88,13 +88,22 @@
   </si>
   <si>
     <t>dec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Număr copii cu care s-a facut minim o activitate                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cazuri noi                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Câți parinți au comunicat cu copiii lor       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,11 +208,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -232,7 +242,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,7 +334,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -357,7 +368,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -533,14 +543,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CK3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:DU3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="R3" sqref="R3:AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
@@ -589,129 +599,205 @@
     <col min="79" max="79" width="4" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="81" max="89" width="4.5703125" customWidth="1"/>
+    <col min="90" max="90" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="4" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="4" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="5" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="112" max="113" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="4.140625" customWidth="1"/>
+    <col min="115" max="115" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="4.7109375" customWidth="1"/>
+    <col min="118" max="118" width="4.5703125" customWidth="1"/>
+    <col min="119" max="119" width="5" customWidth="1"/>
+    <col min="120" max="120" width="3.85546875" customWidth="1"/>
+    <col min="121" max="121" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="5" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:125" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="7" t="s">
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="8" t="s">
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="9" t="s">
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="9"/>
+      <c r="BQ1" s="9"/>
+      <c r="BR1" s="9"/>
+      <c r="BS1" s="9"/>
+      <c r="BT1" s="9"/>
+      <c r="BU1" s="9"/>
+      <c r="BV1" s="9"/>
+      <c r="BW1" s="9"/>
+      <c r="BX1" s="9"/>
+      <c r="BY1" s="9"/>
+      <c r="BZ1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="10" t="s">
+      <c r="CA1" s="10"/>
+      <c r="CB1" s="10"/>
+      <c r="CC1" s="10"/>
+      <c r="CD1" s="10"/>
+      <c r="CE1" s="10"/>
+      <c r="CF1" s="10"/>
+      <c r="CG1" s="10"/>
+      <c r="CH1" s="10"/>
+      <c r="CI1" s="10"/>
+      <c r="CJ1" s="10"/>
+      <c r="CK1" s="10"/>
+      <c r="CL1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="BC1" s="10"/>
-      <c r="BD1" s="10"/>
-      <c r="BE1" s="10"/>
-      <c r="BF1" s="10"/>
-      <c r="BG1" s="10"/>
-      <c r="BH1" s="10"/>
-      <c r="BI1" s="10"/>
-      <c r="BJ1" s="10"/>
-      <c r="BK1" s="10"/>
-      <c r="BL1" s="10"/>
-      <c r="BM1" s="10"/>
-      <c r="BN1" s="11" t="s">
+      <c r="CM1" s="11"/>
+      <c r="CN1" s="11"/>
+      <c r="CO1" s="11"/>
+      <c r="CP1" s="11"/>
+      <c r="CQ1" s="11"/>
+      <c r="CR1" s="11"/>
+      <c r="CS1" s="11"/>
+      <c r="CT1" s="11"/>
+      <c r="CU1" s="11"/>
+      <c r="CV1" s="11"/>
+      <c r="CW1" s="11"/>
+      <c r="CX1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="BO1" s="11"/>
-      <c r="BP1" s="11"/>
-      <c r="BQ1" s="11"/>
-      <c r="BR1" s="11"/>
-      <c r="BS1" s="11"/>
-      <c r="BT1" s="11"/>
-      <c r="BU1" s="11"/>
-      <c r="BV1" s="11"/>
-      <c r="BW1" s="11"/>
-      <c r="BX1" s="11"/>
-      <c r="BY1" s="11"/>
-      <c r="BZ1" s="12" t="s">
+      <c r="CY1" s="12"/>
+      <c r="CZ1" s="12"/>
+      <c r="DA1" s="12"/>
+      <c r="DB1" s="12"/>
+      <c r="DC1" s="12"/>
+      <c r="DD1" s="12"/>
+      <c r="DE1" s="12"/>
+      <c r="DF1" s="12"/>
+      <c r="DG1" s="12"/>
+      <c r="DH1" s="12"/>
+      <c r="DI1" s="12"/>
+      <c r="DJ1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="CA1" s="12"/>
-      <c r="CB1" s="12"/>
-      <c r="CC1" s="12"/>
-      <c r="CD1" s="12"/>
-      <c r="CE1" s="12"/>
-      <c r="CF1" s="12"/>
-      <c r="CG1" s="12"/>
-      <c r="CH1" s="12"/>
-      <c r="CI1" s="12"/>
-      <c r="CJ1" s="12"/>
-      <c r="CK1" s="12"/>
+      <c r="DK1" s="13"/>
+      <c r="DL1" s="13"/>
+      <c r="DM1" s="13"/>
+      <c r="DN1" s="13"/>
+      <c r="DO1" s="13"/>
+      <c r="DP1" s="13"/>
+      <c r="DQ1" s="13"/>
+      <c r="DR1" s="13"/>
+      <c r="DS1" s="13"/>
+      <c r="DT1" s="13"/>
+      <c r="DU1" s="13"/>
     </row>
-    <row r="2" spans="1:89" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+    <row r="2" spans="1:125" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
@@ -964,105 +1050,246 @@
       <c r="CK2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="CL2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CN2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="CO2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="CP2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="CQ2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="CR2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="CS2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="CT2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="CU2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="CV2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="CW2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="CX2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="CY2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="CZ2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="DA2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DB2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="DC2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="DD2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="DE2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="DF2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="DG2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="DH2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="DI2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="DJ2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="DK2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DL2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="DM2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="DN2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="DO2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="DP2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="DQ2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="DR2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="DS2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="DT2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="DU2" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:89" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="13"/>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="13"/>
-      <c r="BE3" s="13"/>
-      <c r="BF3" s="13"/>
-      <c r="BG3" s="13"/>
-      <c r="BH3" s="13"/>
-      <c r="BI3" s="13"/>
-      <c r="BJ3" s="13"/>
-      <c r="BK3" s="13"/>
-      <c r="BL3" s="13"/>
-      <c r="BM3" s="13"/>
-      <c r="BN3" s="13"/>
-      <c r="BO3" s="13"/>
-      <c r="BP3" s="13"/>
-      <c r="BQ3" s="13"/>
-      <c r="BR3" s="13"/>
-      <c r="BS3" s="13"/>
-      <c r="BT3" s="13"/>
-      <c r="BU3" s="13"/>
-      <c r="BV3" s="13"/>
-      <c r="BW3" s="13"/>
-      <c r="BX3" s="13"/>
-      <c r="BY3" s="13"/>
-      <c r="BZ3" s="13"/>
-      <c r="CA3" s="13"/>
-      <c r="CB3" s="13"/>
-      <c r="CC3" s="13"/>
-      <c r="CD3" s="13"/>
-      <c r="CE3" s="13"/>
-      <c r="CF3" s="13"/>
-      <c r="CG3" s="13"/>
-      <c r="CH3" s="13"/>
-      <c r="CI3" s="13"/>
-      <c r="CJ3" s="13"/>
-      <c r="CK3" s="13"/>
+    <row r="3" spans="1:125" ht="30" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+      <c r="BT3" s="4"/>
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="4"/>
+      <c r="BW3" s="4"/>
+      <c r="BX3" s="4"/>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="4"/>
+      <c r="CA3" s="4"/>
+      <c r="CB3" s="4"/>
+      <c r="CC3" s="4"/>
+      <c r="CD3" s="4"/>
+      <c r="CE3" s="4"/>
+      <c r="CF3" s="4"/>
+      <c r="CG3" s="4"/>
+      <c r="CH3" s="4"/>
+      <c r="CI3" s="4"/>
+      <c r="CJ3" s="4"/>
+      <c r="CK3" s="4"/>
+      <c r="CL3" s="4"/>
+      <c r="CM3" s="4"/>
+      <c r="CN3" s="4"/>
+      <c r="CO3" s="4"/>
+      <c r="CP3" s="4"/>
+      <c r="CQ3" s="4"/>
+      <c r="CR3" s="4"/>
+      <c r="CS3" s="4"/>
+      <c r="CT3" s="4"/>
+      <c r="CU3" s="4"/>
+      <c r="CV3" s="4"/>
+      <c r="CW3" s="4"/>
+      <c r="CX3" s="4"/>
+      <c r="CY3" s="4"/>
+      <c r="CZ3" s="4"/>
+      <c r="DA3" s="4"/>
+      <c r="DB3" s="4"/>
+      <c r="DC3" s="4"/>
+      <c r="DD3" s="4"/>
+      <c r="DE3" s="4"/>
+      <c r="DF3" s="4"/>
+      <c r="DG3" s="4"/>
+      <c r="DH3" s="4"/>
+      <c r="DI3" s="4"/>
+      <c r="DJ3" s="4"/>
+      <c r="DK3" s="4"/>
+      <c r="DL3" s="4"/>
+      <c r="DM3" s="4"/>
+      <c r="DN3" s="4"/>
+      <c r="DO3" s="4"/>
+      <c r="DP3" s="4"/>
+      <c r="DQ3" s="4"/>
+      <c r="DR3" s="4"/>
+      <c r="DS3" s="4"/>
+      <c r="DT3" s="4"/>
+      <c r="DU3" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+  <mergeCells count="15">
+    <mergeCell ref="CX1:DI1"/>
+    <mergeCell ref="DJ1:DU1"/>
     <mergeCell ref="F1:Q1"/>
     <mergeCell ref="R1:AC1"/>
     <mergeCell ref="AD1:AO1"/>
@@ -1070,30 +1297,36 @@
     <mergeCell ref="BB1:BM1"/>
     <mergeCell ref="BN1:BY1"/>
     <mergeCell ref="BZ1:CK1"/>
+    <mergeCell ref="CL1:CW1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scr-edu/src/main/resources/poi_templates/raportare.tmpl.xlsx
+++ b/scr-edu/src/main/resources/poi_templates/raportare.tmpl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="29">
   <si>
     <t>Mama plecată</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t xml:space="preserve">Câți parinți au comunicat cu copiii lor       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cazuri inactive       </t>
+  </si>
+  <si>
+    <t>Nr.Crt.</t>
   </si>
 </sst>
 </file>
@@ -181,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -204,22 +210,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -236,13 +281,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -544,173 +596,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DU3"/>
+  <dimension ref="A1:EH3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:AC3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="41" width="4.5703125" customWidth="1"/>
-    <col min="42" max="42" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="53" width="4.5703125" customWidth="1"/>
-    <col min="54" max="54" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5" customWidth="1"/>
-    <col min="56" max="56" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="57" max="65" width="4.5703125" customWidth="1"/>
-    <col min="66" max="66" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="4" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="69" max="77" width="4.5703125" customWidth="1"/>
-    <col min="78" max="78" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="4" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="89" width="4.5703125" customWidth="1"/>
-    <col min="90" max="90" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="4" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="5" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="4" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="5" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="112" max="113" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="4.140625" customWidth="1"/>
-    <col min="115" max="115" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="4.7109375" customWidth="1"/>
-    <col min="118" max="118" width="4.5703125" customWidth="1"/>
-    <col min="119" max="119" width="5" customWidth="1"/>
-    <col min="120" max="120" width="3.85546875" customWidth="1"/>
-    <col min="121" max="121" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="5" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="5.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="42" width="4.5703125" customWidth="1"/>
+    <col min="43" max="43" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="54" width="4.5703125" customWidth="1"/>
+    <col min="55" max="55" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5" customWidth="1"/>
+    <col min="57" max="57" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="66" width="4.5703125" customWidth="1"/>
+    <col min="67" max="67" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="4" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="78" width="4.5703125" customWidth="1"/>
+    <col min="79" max="79" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="4" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="90" width="4.5703125" customWidth="1"/>
+    <col min="91" max="91" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="4" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="5" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="4" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="5" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="113" max="114" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="4.140625" customWidth="1"/>
+    <col min="116" max="116" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="4.7109375" customWidth="1"/>
+    <col min="119" max="119" width="4.5703125" customWidth="1"/>
+    <col min="120" max="120" width="5" customWidth="1"/>
+    <col min="121" max="121" width="3.85546875" customWidth="1"/>
+    <col min="122" max="122" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="5.140625" customWidth="1"/>
+    <col min="127" max="127" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="4" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="5" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="137" max="138" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:138" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14" t="s">
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="7" t="s">
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC1" s="8"/>
       <c r="BD1" s="8"/>
       <c r="BE1" s="8"/>
       <c r="BF1" s="8"/>
@@ -721,10 +787,10 @@
       <c r="BK1" s="8"/>
       <c r="BL1" s="8"/>
       <c r="BM1" s="8"/>
-      <c r="BN1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="BO1" s="9"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="BP1" s="9"/>
       <c r="BQ1" s="9"/>
       <c r="BR1" s="9"/>
@@ -735,10 +801,10 @@
       <c r="BW1" s="9"/>
       <c r="BX1" s="9"/>
       <c r="BY1" s="9"/>
-      <c r="BZ1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="CA1" s="10"/>
+      <c r="BZ1" s="9"/>
+      <c r="CA1" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="CB1" s="10"/>
       <c r="CC1" s="10"/>
       <c r="CD1" s="10"/>
@@ -749,10 +815,10 @@
       <c r="CI1" s="10"/>
       <c r="CJ1" s="10"/>
       <c r="CK1" s="10"/>
-      <c r="CL1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="CM1" s="11"/>
+      <c r="CL1" s="10"/>
+      <c r="CM1" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="CN1" s="11"/>
       <c r="CO1" s="11"/>
       <c r="CP1" s="11"/>
@@ -763,10 +829,10 @@
       <c r="CU1" s="11"/>
       <c r="CV1" s="11"/>
       <c r="CW1" s="11"/>
-      <c r="CX1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="CY1" s="12"/>
+      <c r="CX1" s="11"/>
+      <c r="CY1" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="CZ1" s="12"/>
       <c r="DA1" s="12"/>
       <c r="DB1" s="12"/>
@@ -777,389 +843,441 @@
       <c r="DG1" s="12"/>
       <c r="DH1" s="12"/>
       <c r="DI1" s="12"/>
-      <c r="DJ1" s="13" t="s">
+      <c r="DJ1" s="12"/>
+      <c r="DK1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="DL1" s="5"/>
+      <c r="DM1" s="5"/>
+      <c r="DN1" s="5"/>
+      <c r="DO1" s="5"/>
+      <c r="DP1" s="5"/>
+      <c r="DQ1" s="5"/>
+      <c r="DR1" s="5"/>
+      <c r="DS1" s="5"/>
+      <c r="DT1" s="5"/>
+      <c r="DU1" s="5"/>
+      <c r="DV1" s="5"/>
+      <c r="DW1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="DK1" s="13"/>
-      <c r="DL1" s="13"/>
-      <c r="DM1" s="13"/>
-      <c r="DN1" s="13"/>
-      <c r="DO1" s="13"/>
-      <c r="DP1" s="13"/>
-      <c r="DQ1" s="13"/>
-      <c r="DR1" s="13"/>
-      <c r="DS1" s="13"/>
-      <c r="DT1" s="13"/>
-      <c r="DU1" s="13"/>
+      <c r="DX1" s="6"/>
+      <c r="DY1" s="6"/>
+      <c r="DZ1" s="6"/>
+      <c r="EA1" s="6"/>
+      <c r="EB1" s="6"/>
+      <c r="EC1" s="6"/>
+      <c r="ED1" s="6"/>
+      <c r="EE1" s="6"/>
+      <c r="EF1" s="6"/>
+      <c r="EG1" s="6"/>
+      <c r="EH1" s="6"/>
     </row>
-    <row r="2" spans="1:125" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="2" t="s">
+    <row r="2" spans="1:138" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AR2" s="3" t="s">
+      <c r="AS2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AY2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="BA2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="BA2" s="3" t="s">
+      <c r="BB2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="BC2" s="3" t="s">
+      <c r="BD2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BE2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BE2" s="3" t="s">
+      <c r="BF2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BF2" s="3" t="s">
+      <c r="BG2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="BG2" s="3" t="s">
+      <c r="BH2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BI2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="BI2" s="3" t="s">
+      <c r="BJ2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BJ2" s="3" t="s">
+      <c r="BK2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BK2" s="3" t="s">
+      <c r="BL2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="BL2" s="3" t="s">
+      <c r="BM2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="BM2" s="3" t="s">
+      <c r="BN2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="BO2" s="3" t="s">
+      <c r="BP2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="BP2" s="3" t="s">
+      <c r="BQ2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BQ2" s="3" t="s">
+      <c r="BR2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BR2" s="3" t="s">
+      <c r="BS2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="BS2" s="3" t="s">
+      <c r="BT2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="BT2" s="3" t="s">
+      <c r="BU2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="BU2" s="3" t="s">
+      <c r="BV2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BV2" s="3" t="s">
+      <c r="BW2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BW2" s="3" t="s">
+      <c r="BX2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="BX2" s="3" t="s">
+      <c r="BY2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="BY2" s="3" t="s">
+      <c r="BZ2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BZ2" s="2" t="s">
+      <c r="CA2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="CA2" s="3" t="s">
+      <c r="CB2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="CB2" s="3" t="s">
+      <c r="CC2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="CC2" s="3" t="s">
+      <c r="CD2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="CD2" s="3" t="s">
+      <c r="CE2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="CE2" s="3" t="s">
+      <c r="CF2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="CF2" s="3" t="s">
+      <c r="CG2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="CG2" s="3" t="s">
+      <c r="CH2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="CH2" s="3" t="s">
+      <c r="CI2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="CI2" s="3" t="s">
+      <c r="CJ2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="CJ2" s="3" t="s">
+      <c r="CK2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="CK2" s="3" t="s">
+      <c r="CL2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="CL2" s="2" t="s">
+      <c r="CM2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="CM2" s="3" t="s">
+      <c r="CN2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="CN2" s="3" t="s">
+      <c r="CO2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="CO2" s="3" t="s">
+      <c r="CP2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="CP2" s="3" t="s">
+      <c r="CQ2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="CQ2" s="3" t="s">
+      <c r="CR2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="CR2" s="3" t="s">
+      <c r="CS2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="CS2" s="3" t="s">
+      <c r="CT2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="CT2" s="3" t="s">
+      <c r="CU2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="CU2" s="3" t="s">
+      <c r="CV2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="CV2" s="3" t="s">
+      <c r="CW2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="CW2" s="3" t="s">
+      <c r="CX2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="CX2" s="2" t="s">
+      <c r="CY2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="CY2" s="3" t="s">
+      <c r="CZ2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="CZ2" s="3" t="s">
+      <c r="DA2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="DA2" s="3" t="s">
+      <c r="DB2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="DB2" s="3" t="s">
+      <c r="DC2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="DC2" s="3" t="s">
+      <c r="DD2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="DD2" s="3" t="s">
+      <c r="DE2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="DE2" s="3" t="s">
+      <c r="DF2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="DF2" s="3" t="s">
+      <c r="DG2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="DG2" s="3" t="s">
+      <c r="DH2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="DH2" s="3" t="s">
+      <c r="DI2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="DI2" s="3" t="s">
+      <c r="DJ2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="DJ2" s="2" t="s">
+      <c r="DK2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="DK2" s="3" t="s">
+      <c r="DL2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="DL2" s="3" t="s">
+      <c r="DM2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="DM2" s="3" t="s">
+      <c r="DN2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="DN2" s="3" t="s">
+      <c r="DO2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="DO2" s="3" t="s">
+      <c r="DP2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="DP2" s="3" t="s">
+      <c r="DQ2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="DQ2" s="3" t="s">
+      <c r="DR2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="DR2" s="3" t="s">
+      <c r="DS2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="DS2" s="3" t="s">
+      <c r="DT2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="DT2" s="3" t="s">
+      <c r="DU2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="DU2" s="3" t="s">
+      <c r="DV2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="DW2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="DX2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="DY2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="DZ2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="EA2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="EB2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="EC2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="ED2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="EE2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="EF2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="EG2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="EH2" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="3" spans="1:125" ht="30" customHeight="1">
+    <row r="3" spans="1:138" ht="30" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1285,24 +1403,39 @@
       <c r="DS3" s="4"/>
       <c r="DT3" s="4"/>
       <c r="DU3" s="4"/>
+      <c r="DV3" s="4"/>
+      <c r="DW3" s="4"/>
+      <c r="DX3" s="4"/>
+      <c r="DY3" s="4"/>
+      <c r="DZ3" s="4"/>
+      <c r="EA3" s="4"/>
+      <c r="EB3" s="4"/>
+      <c r="EC3" s="4"/>
+      <c r="ED3" s="4"/>
+      <c r="EE3" s="4"/>
+      <c r="EF3" s="4"/>
+      <c r="EG3" s="4"/>
+      <c r="EH3" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="CX1:DI1"/>
-    <mergeCell ref="DJ1:DU1"/>
-    <mergeCell ref="F1:Q1"/>
-    <mergeCell ref="R1:AC1"/>
-    <mergeCell ref="AD1:AO1"/>
-    <mergeCell ref="AP1:BA1"/>
-    <mergeCell ref="BB1:BM1"/>
-    <mergeCell ref="BN1:BY1"/>
-    <mergeCell ref="BZ1:CK1"/>
-    <mergeCell ref="CL1:CW1"/>
+  <mergeCells count="17">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="DK1:DV1"/>
+    <mergeCell ref="DW1:EH1"/>
+    <mergeCell ref="G1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AQ1:BB1"/>
+    <mergeCell ref="BC1:BN1"/>
+    <mergeCell ref="BO1:BZ1"/>
+    <mergeCell ref="CA1:CL1"/>
+    <mergeCell ref="CM1:CX1"/>
+    <mergeCell ref="CY1:DJ1"/>
+    <mergeCell ref="AE1:AP1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
